--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mijn spullen\School\3 TI\Software Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8B478B-6112-419C-9D1C-0A3908B4CB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57E43EA-B9A8-4A3B-8383-3F3A3027FDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D07966F4-4708-4B8B-8D3F-D0D6414C64C8}"/>
+    <workbookView xWindow="-28920" yWindow="2115" windowWidth="29040" windowHeight="15840" xr2:uid="{D07966F4-4708-4B8B-8D3F-D0D6414C64C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Wat?</t>
   </si>
@@ -84,10 +84,13 @@
     <t>11 minuten</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>PUT en DELETE requests</t>
+  </si>
+  <si>
+    <t>45 minuten</t>
+  </si>
+  <si>
+    <t>28 minuten</t>
   </si>
 </sst>
 </file>
@@ -270,6 +273,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Afbeelding 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32373A8C-35C1-4770-BDEE-96975B8CEBF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514850" y="5057775"/>
+          <a:ext cx="3124200" cy="2167812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -570,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DEAE62-AF9C-40D6-B582-5E35B12E23F8}">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,12 +731,25 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44492</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44492</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mijn spullen\School\3 TI\Software Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57E43EA-B9A8-4A3B-8383-3F3A3027FDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565D9A9D-C185-4AB6-9690-CA7CE039BB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2115" windowWidth="29040" windowHeight="15840" xr2:uid="{D07966F4-4708-4B8B-8D3F-D0D6414C64C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D07966F4-4708-4B8B-8D3F-D0D6414C64C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Wat?</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>28 minuten</t>
+  </si>
+  <si>
+    <t>2u 10min</t>
+  </si>
+  <si>
+    <t>Extra youtube video over API testing in postman</t>
+  </si>
+  <si>
+    <t>19 minuten</t>
   </si>
 </sst>
 </file>
@@ -195,7 +204,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>106317</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -309,6 +318,94 @@
         <a:xfrm>
           <a:off x="4514850" y="5057775"/>
           <a:ext cx="3124200" cy="2167812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>143152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Afbeelding 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15493C50-E632-4317-B898-B6D47F2F9E61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905750" y="3467100"/>
+          <a:ext cx="5372100" cy="3724552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>157707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Afbeelding 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C3A18A-8E5D-4CDB-BF63-FA5D73A4297A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="7334251"/>
+          <a:ext cx="3114675" cy="1205456"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -617,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DEAE62-AF9C-40D6-B582-5E35B12E23F8}">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +848,28 @@
         <v>18</v>
       </c>
     </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44502</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44507</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mijn spullen\School\3 TI\Software Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565D9A9D-C185-4AB6-9690-CA7CE039BB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2304CFF9-A2BD-4E10-9865-C0E3EB19C8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D07966F4-4708-4B8B-8D3F-D0D6414C64C8}"/>
+    <workbookView xWindow="-28920" yWindow="2115" windowWidth="29040" windowHeight="15840" xr2:uid="{D07966F4-4708-4B8B-8D3F-D0D6414C64C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Wat?</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>19 minuten</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z0MimkXIvE8</t>
+  </si>
+  <si>
+    <t>Extra videos over postman bekeken en een paar extra requests gemaakt om mijn spotify playlist bij te vullen</t>
+  </si>
+  <si>
+    <t>65 minuten</t>
   </si>
 </sst>
 </file>
@@ -204,7 +213,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>106317</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -336,7 +345,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>143152</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -714,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DEAE62-AF9C-40D6-B582-5E35B12E23F8}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,6 +879,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="15" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6">
+        <v>44515</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mijn spullen\School\3 TI\Software Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2304CFF9-A2BD-4E10-9865-C0E3EB19C8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B23A1EE-65FB-4E9A-A847-FDFBD42F094E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2115" windowWidth="29040" windowHeight="15840" xr2:uid="{D07966F4-4708-4B8B-8D3F-D0D6414C64C8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Wat?</t>
   </si>
@@ -109,19 +109,28 @@
   </si>
   <si>
     <t>65 minuten</t>
+  </si>
+  <si>
+    <t>Documentatie aangevuld</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -171,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -184,6 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -725,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DEAE62-AF9C-40D6-B582-5E35B12E23F8}">
   <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,6 +900,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44520</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+    </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
@@ -897,6 +921,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mijn spullen\School\3 TI\Software Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B23A1EE-65FB-4E9A-A847-FDFBD42F094E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27F1602-63AF-4A37-B998-5607D8B3CC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2115" windowWidth="29040" windowHeight="15840" xr2:uid="{D07966F4-4708-4B8B-8D3F-D0D6414C64C8}"/>
+    <workbookView xWindow="-28800" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{D07966F4-4708-4B8B-8D3F-D0D6414C64C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Wat?</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Documentatie aangevuld</t>
+  </si>
+  <si>
+    <t>15 minuten</t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,10 +914,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6">
+        <v>44527</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mijn spullen\School\3 TI\Software Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27F1602-63AF-4A37-B998-5607D8B3CC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B472F07A-9357-49E4-8608-AFED6AD5226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{D07966F4-4708-4B8B-8D3F-D0D6414C64C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D07966F4-4708-4B8B-8D3F-D0D6414C64C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Wat?</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>15 minuten</t>
+  </si>
+  <si>
+    <t>120 minuten</t>
+  </si>
+  <si>
+    <t>Authenticatie op collection niveau gemaakt en extra testing gedaan</t>
   </si>
 </sst>
 </file>
@@ -130,10 +136,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -180,8 +188,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -196,9 +205,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -358,7 +368,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>143152</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -736,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DEAE62-AF9C-40D6-B582-5E35B12E23F8}">
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
@@ -925,17 +935,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="18" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44530</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="8" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L31" r:id="rId1" xr:uid="{C90EBE3E-0C5E-4088-A119-868AB13E48C4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mijn spullen\School\3 TI\Software Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B472F07A-9357-49E4-8608-AFED6AD5226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C340A945-8F5D-4B6C-82C6-9FF72ECD90EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D07966F4-4708-4B8B-8D3F-D0D6414C64C8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Wat?</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Authenticatie op collection niveau gemaakt en extra testing gedaan</t>
+  </si>
+  <si>
+    <t>180 minuten</t>
+  </si>
+  <si>
+    <t>Extra postman videos bekeken, Environment en collection runner uitgewerkt</t>
   </si>
 </sst>
 </file>
@@ -368,7 +374,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>143152</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -749,7 +755,7 @@
   <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B21:B22"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,17 +952,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
+    <row r="19" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6">
+        <v>44537</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L31" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="L31" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L31" r:id="rId1" xr:uid="{C90EBE3E-0C5E-4088-A119-868AB13E48C4}"/>
+    <hyperlink ref="L30" r:id="rId1" xr:uid="{8DF22D3C-F0B4-4BC5-8717-F0E51051E59C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mijn spullen\School\3 TI\Software Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C340A945-8F5D-4B6C-82C6-9FF72ECD90EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D56F774-63C6-418D-81B2-7B064F1FC21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D07966F4-4708-4B8B-8D3F-D0D6414C64C8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Wat?</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Extra postman videos bekeken, Environment en collection runner uitgewerkt</t>
+  </si>
+  <si>
+    <t>Collection tests aangemaakt en document verder aangevuld</t>
   </si>
 </sst>
 </file>
@@ -323,15 +326,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>177087</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158037</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -354,7 +357,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4514850" y="5057775"/>
+          <a:off x="4467225" y="5229225"/>
           <a:ext cx="3124200" cy="2167812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -374,7 +377,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>143152</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -411,15 +414,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>157707</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>110082</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -442,7 +445,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533900" y="7334251"/>
+          <a:off x="4448175" y="7477126"/>
           <a:ext cx="3114675" cy="1205456"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -755,7 +758,7 @@
   <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,6 +966,17 @@
         <v>29</v>
       </c>
     </row>
+    <row r="20" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44538</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L30" s="8" t="s">
         <v>22</v>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mijn spullen\School\3 TI\Software Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D56F774-63C6-418D-81B2-7B064F1FC21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9129E855-3E68-4A1F-88BD-8E49F79FFD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D07966F4-4708-4B8B-8D3F-D0D6414C64C8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Wat?</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Collection tests aangemaakt en document verder aangevuld</t>
+  </si>
+  <si>
+    <t>udemy tutorials afgekeken</t>
+  </si>
+  <si>
+    <t>Ik heb alle video's bekeken maar heb de laatste secties niet geimplementeerd op Postman.</t>
   </si>
 </sst>
 </file>
@@ -414,22 +420,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>457201</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>110082</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30716</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Afbeelding 6">
+        <xdr:cNvPr id="8" name="Afbeelding 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C3A18A-8E5D-4CDB-BF63-FA5D73A4297A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E58C03-F336-45C7-8916-405176170B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -445,8 +451,184 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4448175" y="7477126"/>
-          <a:ext cx="3114675" cy="1205456"/>
+          <a:off x="4391026" y="7439026"/>
+          <a:ext cx="3257549" cy="2116690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>128040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Afbeelding 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E038F623-6A56-46A8-91B0-9DB1B5AB5228}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333875" y="9648825"/>
+          <a:ext cx="3286125" cy="1337715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>81889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Afbeelding 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6343FE4F-60D0-4854-BF16-C94D29A2CD3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="11134725"/>
+          <a:ext cx="3295650" cy="2282164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>70001</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Afbeelding 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37B860E-D47A-4BA1-9ED1-693DD0BC5F7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="13487400"/>
+          <a:ext cx="3394226" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>296874</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Afbeelding 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4FB0FF-9036-42BB-92D2-73412CE80322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8067675" y="8734425"/>
+          <a:ext cx="6526224" cy="5381625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -755,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DEAE62-AF9C-40D6-B582-5E35B12E23F8}">
-  <dimension ref="B2:L31"/>
+  <dimension ref="B2:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,6 +1159,28 @@
         <v>17</v>
       </c>
     </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="6">
+        <v>44550</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44569</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L30" s="8" t="s">
         <v>22</v>
@@ -984,6 +1188,11 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L31" s="8"/>
+    </row>
+    <row r="61" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
